--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199630.0669352591</v>
+        <v>-202135.646124351</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>136.1681453759706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>270.7196665139531</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>146.4631724251602</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>17.3207399631245</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>147.8818072252638</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,7 +871,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>26.30878201733218</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>151.6659239708412</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.2418567859521</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.6615128592948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>171.5982442697206</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4.416820816807321</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>9.644421510690469</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.4575088797733</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.0893535554415</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016455</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.0574237118688</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520935</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>80.56412890121084</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>186.8176706595582</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>68.17501931583948</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>94.05951414665331</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.57849775387122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>98.74897854931466</v>
+        <v>65.06198119183985</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2893995353468</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9025715636457</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.452563354727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>215.0524136249016</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>8.616048582069491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>169.5153072244331</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>48.15331591778289</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>35.9987177458277</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>174.1182300831013</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>188.095826133329</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>61.62152140683782</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>178.5134655978075</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.865979903688</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.903462963277</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D2" t="n">
-        <v>878.6377643565262</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="E2" t="n">
-        <v>492.8495117582819</v>
+        <v>1106.119693124105</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>695.133788334497</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1605.865979903688</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1605.865979903688</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,22 +4407,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.3612475582987</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="C4" t="n">
-        <v>349.3612475582987</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="D4" t="n">
-        <v>349.3612475582987</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>349.3612475582987</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>349.3612475582987</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>570.1538267018288</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>570.1538267018288</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.3612475582987</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1715.892666966216</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542235</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.516222935484</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>641.7279703372401</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>230.7420655476325</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>219.7100194330331</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.0642295677644</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398575</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398575</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X7" t="n">
-        <v>902.4041387981149</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y7" t="n">
-        <v>681.6115596545848</v>
+        <v>847.3980557622424</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.513093752762</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1738.55057681235</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1380.2848782056</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>994.4966256073556</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2884.252265792696</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.112933816884</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>320.4695810215368</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>320.4695810215368</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>173.5796335236264</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>173.5796335236264</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.372197774137</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648818</v>
+        <v>1231.623159879255</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750801</v>
+        <v>1003.633608981238</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072707</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911445</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835377</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038361</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797763</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S16" t="n">
-        <v>2298.539471851642</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>2298.539471851642</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.46424519584</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989953</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952992</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.373036054975</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.580456911445</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851771</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851771</v>
       </c>
       <c r="G19" t="n">
         <v>175.9033664000583</v>
@@ -5668,34 +5668,34 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.737459147272</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.747908249255</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>956.9553291057244</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.872235754091</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C22" t="n">
-        <v>853.936052826184</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.302830625878</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.313279727861</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.520700584331</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.7543264856228</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2164.361806256059</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U25" t="n">
-        <v>1875.286579600257</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V25" t="n">
-        <v>1620.602091394371</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W25" t="n">
-        <v>1331.18492135741</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X25" t="n">
-        <v>1103.195370459393</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y25" t="n">
-        <v>882.4027913158625</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703114</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360354</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462336</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318806</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>416.6057892068301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>269.7158417089197</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>102.5197424237996</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473698</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194629</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.218472639697</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X40" t="n">
-        <v>1198.22892174168</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>379.859158574868</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>379.859158574868</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T43" t="n">
-        <v>2083.791617318188</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.716390662386</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,34 +7822,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>270.7079003657408</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>140.8280362590009</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>131.2947330550878</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>83.72081667444105</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>18.42479281954039</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.74262662649575</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>86.46557462472225</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>100.4621571004338</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>65.31997266426984</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>78.25894333072969</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>192.4634841899377</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>75.03697526434114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>283.9159882634384</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.6564717779736</v>
+        <v>152.3434691354484</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>10.32607348286555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.37941682721026</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.5322397271932</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.6786642641544</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>100.4621571004295</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>181.4067325814606</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.713750098835959</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.08864825591516</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>103.902616885431</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>38.89198472948078</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1118975.734048943</v>
+        <v>1118975.734048944</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1118975.734048944</v>
+        <v>1118975.734048943</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1118975.734048944</v>
+        <v>1118975.734048943</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1118975.734048943</v>
+        <v>1118975.734048944</v>
       </c>
     </row>
     <row r="14">
@@ -26317,43 +26317,43 @@
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="F2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="N2" t="n">
-        <v>302679.9748837525</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605425</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551209</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363162</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87444.62104966227</v>
+        <v>87444.62104966214</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26448,13 +26448,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768841</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768872</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1020413.210462528</v>
+        <v>-1020634.341776502</v>
       </c>
       <c r="C6" t="n">
-        <v>-92616.19756751318</v>
+        <v>-92616.19756751342</v>
       </c>
       <c r="D6" t="n">
-        <v>110822.5440445926</v>
+        <v>110822.5440445927</v>
       </c>
       <c r="E6" t="n">
-        <v>-133802.161069279</v>
+        <v>-133836.8989947148</v>
       </c>
       <c r="F6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126407</v>
       </c>
       <c r="G6" t="n">
-        <v>191610.300738076</v>
+        <v>191575.5628126406</v>
       </c>
       <c r="H6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="I6" t="n">
-        <v>191610.3007380761</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="J6" t="n">
-        <v>24005.12292809378</v>
+        <v>23970.38500265815</v>
       </c>
       <c r="K6" t="n">
-        <v>142500.2080320219</v>
+        <v>142465.470106586</v>
       </c>
       <c r="L6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126405</v>
       </c>
       <c r="M6" t="n">
-        <v>106555.2728025646</v>
+        <v>106520.5348771284</v>
       </c>
       <c r="N6" t="n">
-        <v>191610.3007380763</v>
+        <v>191575.5628126406</v>
       </c>
       <c r="O6" t="n">
-        <v>191610.3007380762</v>
+        <v>191575.5628126404</v>
       </c>
       <c r="P6" t="n">
-        <v>167360.8262666967</v>
+        <v>167360.8262666965</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>223.2679282533089</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>62.71314597212812</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>328.3742596033508</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>142.9418404164793</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.59012339598516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.9231404927999733</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>235.2778014719909</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>344.8241479006057</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.1105934036303</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.25214650926389</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>508.8976500257889</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>512.9101366533182</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>223.6976288294625</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>218.942823359377</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>150.2061940096332</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,13 +33500,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>417.5509096439921</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>626.4629682828348</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7190218511037</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>675.489807295821</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>624.1318526922785</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346388</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>366.7636161037706</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>370.3138922088737</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096367</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>81.10138438501811</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,22 +36434,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>81.10138438501797</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,13 +37148,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>279.7094706696331</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>483.8667238383904</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,25 +37619,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>207.1227774066593</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>533.3557733738027</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>481.5356082478341</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>368.0351523183239</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
